--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam15-Itga5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Adam15-Itga5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H2">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I2">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J2">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N2">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P2">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q2">
-        <v>2961.100465712857</v>
+        <v>3264.534902679333</v>
       </c>
       <c r="R2">
-        <v>26649.90419141572</v>
+        <v>29380.814124114</v>
       </c>
       <c r="S2">
-        <v>0.1030295467194727</v>
+        <v>0.1849535462575991</v>
       </c>
       <c r="T2">
-        <v>0.1030295467194727</v>
+        <v>0.1849535462575992</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H3">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I3">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J3">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N3">
         <v>160.0844</v>
       </c>
       <c r="O3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P3">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q3">
-        <v>3682.394736892355</v>
+        <v>3405.429461402889</v>
       </c>
       <c r="R3">
-        <v>33141.55263203119</v>
+        <v>30648.865152626</v>
       </c>
       <c r="S3">
-        <v>0.1281265073499812</v>
+        <v>0.1929359845102683</v>
       </c>
       <c r="T3">
-        <v>0.1281265073499812</v>
+        <v>0.1929359845102684</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H4">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I4">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J4">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N4">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P4">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q4">
-        <v>2759.088458192257</v>
+        <v>1595.870275867501</v>
       </c>
       <c r="R4">
-        <v>24831.79612373031</v>
+        <v>14362.83248280751</v>
       </c>
       <c r="S4">
-        <v>0.09600067154021479</v>
+        <v>0.09041467642037959</v>
       </c>
       <c r="T4">
-        <v>0.09600067154021479</v>
+        <v>0.09041467642037961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H5">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I5">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J5">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N5">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P5">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q5">
-        <v>446.7938727296826</v>
+        <v>413.627499432335</v>
       </c>
       <c r="R5">
-        <v>4021.144854567143</v>
+        <v>3722.647494891015</v>
       </c>
       <c r="S5">
-        <v>0.01554589947804927</v>
+        <v>0.02343423339933823</v>
       </c>
       <c r="T5">
-        <v>0.01554589947804928</v>
+        <v>0.02343423339933823</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>69.00849933333333</v>
+        <v>63.81813833333333</v>
       </c>
       <c r="H6">
-        <v>207.025498</v>
+        <v>191.454415</v>
       </c>
       <c r="I6">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726833</v>
       </c>
       <c r="J6">
-        <v>0.425280144828222</v>
+        <v>0.5585681932726834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N6">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P6">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q6">
-        <v>2373.302998476694</v>
+        <v>1179.583006611135</v>
       </c>
       <c r="R6">
-        <v>21359.72698629024</v>
+        <v>10616.24705950021</v>
       </c>
       <c r="S6">
-        <v>0.08257751974050402</v>
+        <v>0.06682975268509801</v>
       </c>
       <c r="T6">
-        <v>0.08257751974050404</v>
+        <v>0.06682975268509804</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>14.694925</v>
       </c>
       <c r="H7">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I7">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J7">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N7">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P7">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q7">
-        <v>630.5476815389501</v>
+        <v>751.7000151929916</v>
       </c>
       <c r="R7">
-        <v>5674.929133850551</v>
+        <v>6765.300136736924</v>
       </c>
       <c r="S7">
-        <v>0.02193949261979287</v>
+        <v>0.04258786861728078</v>
       </c>
       <c r="T7">
-        <v>0.02193949261979286</v>
+        <v>0.04258786861728078</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>14.694925</v>
       </c>
       <c r="H8">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I8">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J8">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N8">
         <v>160.0844</v>
       </c>
       <c r="O8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P8">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q8">
-        <v>784.1427505566666</v>
+        <v>784.1427505566667</v>
       </c>
       <c r="R8">
         <v>7057.28475501</v>
       </c>
       <c r="S8">
-        <v>0.02728373220993179</v>
+        <v>0.04442592492076332</v>
       </c>
       <c r="T8">
-        <v>0.02728373220993179</v>
+        <v>0.04442592492076334</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>14.694925</v>
       </c>
       <c r="H9">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I9">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J9">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N9">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P9">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q9">
-        <v>587.5304977385084</v>
+        <v>367.4691024534833</v>
       </c>
       <c r="R9">
-        <v>5287.774479646576</v>
+        <v>3307.22192208135</v>
       </c>
       <c r="S9">
-        <v>0.02044273795056526</v>
+        <v>0.02081911073552542</v>
       </c>
       <c r="T9">
-        <v>0.02044273795056526</v>
+        <v>0.02081911073552543</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>14.694925</v>
       </c>
       <c r="H10">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I10">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J10">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N10">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P10">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q10">
-        <v>95.14193923430001</v>
+        <v>95.24290806397499</v>
       </c>
       <c r="R10">
-        <v>856.2774531087</v>
+        <v>857.1861725757749</v>
       </c>
       <c r="S10">
-        <v>0.003310401314249803</v>
+        <v>0.005396025506684247</v>
       </c>
       <c r="T10">
-        <v>0.003310401314249803</v>
+        <v>0.005396025506684248</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>14.694925</v>
       </c>
       <c r="H11">
-        <v>44.08477500000001</v>
+        <v>44.084775</v>
       </c>
       <c r="I11">
-        <v>0.09056072647012585</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="J11">
-        <v>0.09056072647012584</v>
+        <v>0.1286173166734377</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N11">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P11">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q11">
-        <v>505.3799155438834</v>
+        <v>271.613749101975</v>
       </c>
       <c r="R11">
-        <v>4548.41923989495</v>
+        <v>2444.523741917775</v>
       </c>
       <c r="S11">
-        <v>0.01758436237558612</v>
+        <v>0.0153883868931839</v>
       </c>
       <c r="T11">
-        <v>0.01758436237558612</v>
+        <v>0.01538838689318391</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H12">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I12">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J12">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N12">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P12">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q12">
-        <v>1854.271822503332</v>
+        <v>870.6953913932158</v>
       </c>
       <c r="R12">
-        <v>16688.44640252999</v>
+        <v>7836.258522538943</v>
       </c>
       <c r="S12">
-        <v>0.06451817072043065</v>
+        <v>0.04932959982022342</v>
       </c>
       <c r="T12">
-        <v>0.06451817072043066</v>
+        <v>0.04932959982022343</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H13">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I13">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J13">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N13">
         <v>160.0844</v>
       </c>
       <c r="O13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P13">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q13">
-        <v>2305.953775975733</v>
+        <v>908.273866309289</v>
       </c>
       <c r="R13">
-        <v>20753.58398378159</v>
+        <v>8174.464796783602</v>
       </c>
       <c r="S13">
-        <v>0.08023414775886056</v>
+        <v>0.05145862352677824</v>
       </c>
       <c r="T13">
-        <v>0.08023414775886058</v>
+        <v>0.05145862352677826</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H14">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I14">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J14">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N14">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P14">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q14">
-        <v>1727.769808238645</v>
+        <v>425.6400791790651</v>
       </c>
       <c r="R14">
-        <v>15549.9282741478</v>
+        <v>3830.760712611586</v>
       </c>
       <c r="S14">
-        <v>0.0601166161836266</v>
+        <v>0.02411481096707581</v>
       </c>
       <c r="T14">
-        <v>0.0601166161836266</v>
+        <v>0.02411481096707582</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H15">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I15">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J15">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N15">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P15">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q15">
-        <v>279.786956998888</v>
+        <v>110.320020537581</v>
       </c>
       <c r="R15">
-        <v>2518.082612989992</v>
+        <v>992.8801848382291</v>
       </c>
       <c r="S15">
-        <v>0.009735003486508303</v>
+        <v>0.006250225416456823</v>
       </c>
       <c r="T15">
-        <v>0.009735003486508305</v>
+        <v>0.006250225416456824</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>43.213838</v>
+        <v>17.02115633333333</v>
       </c>
       <c r="H16">
-        <v>129.641514</v>
+        <v>51.063469</v>
       </c>
       <c r="I16">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="J16">
-        <v>0.2663148374586689</v>
+        <v>0.1489776541406249</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N16">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P16">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q16">
-        <v>1486.186952214255</v>
+        <v>314.610662235261</v>
       </c>
       <c r="R16">
-        <v>13375.68256992829</v>
+        <v>2831.49596011735</v>
       </c>
       <c r="S16">
-        <v>0.05171089930924271</v>
+        <v>0.01782439441009062</v>
       </c>
       <c r="T16">
-        <v>0.05171089930924272</v>
+        <v>0.01782439441009062</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H17">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I17">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J17">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N17">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P17">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q17">
-        <v>49.18325624036667</v>
+        <v>37.28572168333211</v>
       </c>
       <c r="R17">
-        <v>442.6493061633</v>
+        <v>335.5714951499889</v>
       </c>
       <c r="S17">
-        <v>0.001711299111701278</v>
+        <v>0.002112437653659701</v>
       </c>
       <c r="T17">
-        <v>0.001711299111701278</v>
+        <v>0.002112437653659701</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H18">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I18">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J18">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N18">
         <v>160.0844</v>
       </c>
       <c r="O18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P18">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q18">
-        <v>61.1638024511111</v>
+        <v>38.89494182031112</v>
       </c>
       <c r="R18">
-        <v>550.4742220599999</v>
+        <v>350.0544763828</v>
       </c>
       <c r="S18">
-        <v>0.002128154351784305</v>
+        <v>0.002203608671864815</v>
       </c>
       <c r="T18">
-        <v>0.002128154351784305</v>
+        <v>0.002203608671864815</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H19">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I19">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J19">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N19">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P19">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q19">
-        <v>45.82787926327222</v>
+        <v>18.22715232723089</v>
       </c>
       <c r="R19">
-        <v>412.45091336945</v>
+        <v>164.044370945078</v>
       </c>
       <c r="S19">
-        <v>0.001594550972613816</v>
+        <v>0.00103266669268322</v>
       </c>
       <c r="T19">
-        <v>0.001594550972613816</v>
+        <v>0.00103266669268322</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H20">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I20">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J20">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N20">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P20">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q20">
-        <v>7.421152299133333</v>
+        <v>4.724225742463</v>
       </c>
       <c r="R20">
-        <v>66.79037069219999</v>
+        <v>42.518031682167</v>
       </c>
       <c r="S20">
-        <v>0.0002582141222053437</v>
+        <v>0.0002676529216069461</v>
       </c>
       <c r="T20">
-        <v>0.0002582141222053437</v>
+        <v>0.0002676529216069461</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.146216666666667</v>
+        <v>0.7288956666666667</v>
       </c>
       <c r="H21">
-        <v>3.43865</v>
+        <v>2.186687</v>
       </c>
       <c r="I21">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="J21">
-        <v>0.007063813801397379</v>
+        <v>0.006379658608775693</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N21">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P21">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q21">
-        <v>39.42006387885555</v>
+        <v>13.472548157103</v>
       </c>
       <c r="R21">
-        <v>354.7805749097</v>
+        <v>121.252933413927</v>
       </c>
       <c r="S21">
-        <v>0.001371595243092636</v>
+        <v>0.0007632926689610107</v>
       </c>
       <c r="T21">
-        <v>0.001371595243092637</v>
+        <v>0.0007632926689610108</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H22">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I22">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J22">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>42.909214</v>
+        <v>51.15371566666666</v>
       </c>
       <c r="N22">
-        <v>128.727642</v>
+        <v>153.461147</v>
       </c>
       <c r="O22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="P22">
-        <v>0.2422627718984814</v>
+        <v>0.3311207986511828</v>
       </c>
       <c r="Q22">
-        <v>1467.602420441143</v>
+        <v>920.253707924432</v>
       </c>
       <c r="R22">
-        <v>13208.42178397028</v>
+        <v>8282.283371319887</v>
       </c>
       <c r="S22">
-        <v>0.05106426272708392</v>
+        <v>0.05213734630241974</v>
       </c>
       <c r="T22">
-        <v>0.05106426272708393</v>
+        <v>0.05213734630241974</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H23">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I23">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J23">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>53.36146666666665</v>
+        <v>53.36146666666667</v>
       </c>
       <c r="N23">
         <v>160.0844</v>
       </c>
       <c r="O23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964105</v>
       </c>
       <c r="P23">
-        <v>0.3012755448569877</v>
+        <v>0.3454116915964106</v>
       </c>
       <c r="Q23">
-        <v>1825.095599240977</v>
+        <v>959.9710777664002</v>
       </c>
       <c r="R23">
-        <v>16425.86039316879</v>
+        <v>8639.7396998976</v>
       </c>
       <c r="S23">
-        <v>0.06350300318642978</v>
+        <v>0.05438754996673578</v>
       </c>
       <c r="T23">
-        <v>0.06350300318642978</v>
+        <v>0.05438754996673579</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H24">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I24">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J24">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>39.98186433333333</v>
+        <v>25.00653133333333</v>
       </c>
       <c r="N24">
-        <v>119.945593</v>
+        <v>75.019594</v>
       </c>
       <c r="O24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="P24">
-        <v>0.2257351364921847</v>
+        <v>0.1618686447050176</v>
       </c>
       <c r="Q24">
-        <v>1367.47974151541</v>
+        <v>449.866698477664</v>
       </c>
       <c r="R24">
-        <v>12307.31767363868</v>
+        <v>4048.800286298976</v>
       </c>
       <c r="S24">
-        <v>0.04758055984516424</v>
+        <v>0.02548737988935356</v>
       </c>
       <c r="T24">
-        <v>0.04758055984516425</v>
+        <v>0.02548737988935356</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H25">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I25">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J25">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.474475999999999</v>
+        <v>6.481347</v>
       </c>
       <c r="N25">
-        <v>19.423428</v>
+        <v>19.444041</v>
       </c>
       <c r="O25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="P25">
-        <v>0.03655449159125106</v>
+        <v>0.0419541135381084</v>
       </c>
       <c r="Q25">
-        <v>221.4432697063173</v>
+        <v>116.599225126896</v>
       </c>
       <c r="R25">
-        <v>1992.989427356856</v>
+        <v>1049.393026142064</v>
       </c>
       <c r="S25">
-        <v>0.007704973190238332</v>
+        <v>0.006605976294022146</v>
       </c>
       <c r="T25">
-        <v>0.007704973190238334</v>
+        <v>0.006605976294022146</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.20250066666667</v>
+        <v>17.989968</v>
       </c>
       <c r="H26">
-        <v>102.607502</v>
+        <v>53.969904</v>
       </c>
       <c r="I26">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="J26">
-        <v>0.2107804774415858</v>
+        <v>0.1574571773044783</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>34.39145933333333</v>
+        <v>18.483507</v>
       </c>
       <c r="N26">
-        <v>103.174378</v>
+        <v>55.450521</v>
       </c>
       <c r="O26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="P26">
-        <v>0.1941720551610951</v>
+        <v>0.1196447515092806</v>
       </c>
       <c r="Q26">
-        <v>1176.273910775973</v>
+        <v>332.517699457776</v>
       </c>
       <c r="R26">
-        <v>10586.46519698375</v>
+        <v>2992.659295119984</v>
       </c>
       <c r="S26">
-        <v>0.04092767849266956</v>
+        <v>0.01883892485194704</v>
       </c>
       <c r="T26">
-        <v>0.04092767849266957</v>
+        <v>0.01883892485194704</v>
       </c>
     </row>
   </sheetData>
